--- a/public/assets/excel-templates/imports/project/project-import.xlsx
+++ b/public/assets/excel-templates/imports/project/project-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Laravel-proc\rekachain-web\public\assets\excel-templates\imports\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9754AD4E-3A82-4C06-A1CD-783BD07DF991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2D61C1-AAC3-4874-A2EA-A5DDE4EB79B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4913BE8E-1EAC-441F-9642-7860F64F0761}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Nama Proyek</t>
   </si>
@@ -128,26 +128,23 @@
     <t>TS10</t>
   </si>
   <si>
-    <t>kirim data</t>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>TS12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,81 +238,72 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Button 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                  <a:cs typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Button 2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!SaveAndUpload" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C3B0AF-6224-4AA7-87E4-F53986928C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="390525"/>
+          <a:ext cx="1219200" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>KIRIM DATA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -615,12 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C8442-A386-49FB-AC18-9B151C8FFE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C8442-A386-49FB-AC18-9B151C8FFE57}">
   <sheetPr codeName="ProjectSheet"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,42 +663,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!SaveAndUpload">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -894,21 +853,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713BF0E-2FF4-40AA-BB0E-1721A8C71424}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE("List Trainset Proyek  ", Proyek!B1)</f>
         <v>List Trainset Proyek  612</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -924,11 +883,8 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -945,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -953,10 +909,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -967,7 +923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -978,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -989,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1000,7 +956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1008,10 +964,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1022,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1033,7 +989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1044,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1052,6 +1008,28 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1071,7 +1049,7 @@
           <x14:formula1>
             <xm:f>'Preset Trainset'!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C4 C5 C6 C7 C8 C9 C10 C11 C12 C13</xm:sqref>
+          <xm:sqref>C5 C4 C8 C9 C6 C7 C10 C11 C12 C13 C14 C15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/assets/excel-templates/imports/project/project-import.xlsx
+++ b/public/assets/excel-templates/imports/project/project-import.xlsx
@@ -2,21 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Laravel-proc\rekachain-web\public\assets\excel-templates\imports\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2D61C1-AAC3-4874-A2EA-A5DDE4EB79B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9DBBB-2C87-4330-B934-E19711D31DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4913BE8E-1EAC-441F-9642-7860F64F0761}"/>
+    <workbookView xWindow="6705" yWindow="345" windowWidth="21600" windowHeight="11835" activeTab="5" xr2:uid="{C92804E5-B45F-41C4-8C1B-0B886656EE60}"/>
   </bookViews>
   <sheets>
-    <sheet name="Proyek" sheetId="1" r:id="rId1"/>
-    <sheet name="Preset Trainset" sheetId="2" r:id="rId2"/>
-    <sheet name="Trainset" sheetId="3" r:id="rId3"/>
+    <sheet name="Proyek" sheetId="2" r:id="rId1"/>
+    <sheet name="Gerbong" sheetId="3" r:id="rId2"/>
+    <sheet name="Preset Trainset" sheetId="4" r:id="rId3"/>
+    <sheet name="Trainset" sheetId="5" r:id="rId4"/>
+    <sheet name="Panel" sheetId="6" r:id="rId5"/>
+    <sheet name="Komponen" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,21 +39,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Nama Proyek</t>
   </si>
   <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Kereta Api Penumpang</t>
+  </si>
+  <si>
+    <t>Tanggal Inisiasi</t>
+  </si>
+  <si>
+    <t>Tanggal Mulai Pengerjaan</t>
+  </si>
+  <si>
+    <t>Tanggal Selesai Pengerjaan</t>
+  </si>
+  <si>
     <t>Jumlah Trainset</t>
   </si>
   <si>
-    <t>Deskripsi</t>
-  </si>
-  <si>
-    <t>Tanggal Inisiasi</t>
-  </si>
-  <si>
-    <t>Kereta Api Penumpang</t>
+    <t>Nama / Tipe</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Gerbong Kustom</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>Gerbong Eksekutif</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Gerbong Ekonomi</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Gerbong Makan</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Gerbong Pembangkit</t>
   </si>
   <si>
     <t>No.</t>
@@ -59,16 +104,7 @@
     <t>Gerbong</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>Custom</t>
   </si>
   <si>
     <t>TSA</t>
@@ -86,18 +122,9 @@
     <t>TSE</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
     <t>Preset</t>
   </si>
   <si>
-    <t>Tanggal Mulai Pengerjaan</t>
-  </si>
-  <si>
-    <t>Tanggal Selesai Pengerjaan</t>
-  </si>
-  <si>
     <t>TS1</t>
   </si>
   <si>
@@ -132,6 +159,39 @@
   </si>
   <si>
     <t>TS12</t>
+  </si>
+  <si>
+    <t>Tipe Gerbong</t>
+  </si>
+  <si>
+    <t>Jumlah per Gerbong</t>
+  </si>
+  <si>
+    <t>Panel AC</t>
+  </si>
+  <si>
+    <t>Panel Air Conditioner</t>
+  </si>
+  <si>
+    <t>Panel Distribusi</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Jumlah per Panel</t>
+  </si>
+  <si>
+    <t>Baseplate</t>
+  </si>
+  <si>
+    <t>Dasar Plate Panel</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>Kabel Panel</t>
   </si>
 </sst>
 </file>
@@ -147,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +220,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,13 +256,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -203,29 +346,80 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -253,12 +447,12 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!SaveAndUpload" textlink="">
+    <xdr:sp macro="[1]!SaveAndUpload" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="2" name="SendButton">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C3B0AF-6224-4AA7-87E4-F53986928C7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8763C0-91B8-4796-8D15-F8CA40832A29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -305,6 +499,90 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Proyek"/>
+      <sheetName val="Gerbong"/>
+      <sheetName val="Preset Trainset"/>
+      <sheetName val="Trainset"/>
+      <sheetName val="Panel"/>
+      <sheetName val="Komponen"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="SaveAndUpload"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>612</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{794315CC-B0E8-41E8-BFA1-96BD50AED495}" name="InitGerbong" displayName="InitGerbong" ref="A2:B7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:B7" xr:uid="{BF0D3E89-92DC-4984-8951-4A7670178D9A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{9E528268-4FB6-498B-8BBB-C195B6622958}" name="Nama / Tipe"/>
+    <tableColumn id="1" xr3:uid="{6B621069-58DB-475D-8087-4FFC2055D27E}" name="Deskripsi"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51A2BE8B-20DF-4DB7-9C93-D3BF0C13EDA0}" name="InitPanel" displayName="InitPanel" ref="A1:D5" headerRowDxfId="3">
+  <autoFilter ref="A1:D5" xr:uid="{D4A402FF-9890-4747-AAC5-61B2BB3032A4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EFDD1725-14C2-43C1-B909-8330179BD750}" name="Nama" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{D83D07B7-A677-4A57-8766-C0F4A2089388}" name="Deskripsi"/>
+    <tableColumn id="3" xr3:uid="{6E900BA7-DA5B-4DA4-A3D1-1812E524A188}" name="Tipe Gerbong"/>
+    <tableColumn id="4" xr3:uid="{507858FD-7C00-4E50-88F6-C3D4A18B9932}" name="Jumlah per Gerbong" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D93DFDB2-205C-4C92-A9D1-44C12A70DF95}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E5" xr:uid="{2C85E8A0-F032-420E-8C88-9B308DD6320E}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{23D6D278-910C-44A4-9EEB-8495C14DD904}" name="Nama"/>
+    <tableColumn id="2" xr3:uid="{D675B741-687F-43A3-AE54-D822E015D885}" name="Deskripsi"/>
+    <tableColumn id="3" xr3:uid="{9C269CEF-A434-4430-9E24-67A7FA58CFAC}" name="Panel"/>
+    <tableColumn id="4" xr3:uid="{94ACF388-9787-41E6-8245-30C8F3BDF8B5}" name="Tipe Gerbong"/>
+    <tableColumn id="5" xr3:uid="{3A9C94D7-BCB9-4B13-8903-40554CB7ED1F}" name="Jumlah per Panel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,12 +881,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157C8442-A386-49FB-AC18-9B151C8FFE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821A7A88-E288-42F7-B21F-29BDE1ACE3C4}">
   <sheetPr codeName="ProjectSheet"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,50 +897,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>45536</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>45901</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
         <v>12</v>
       </c>
     </row>
@@ -674,363 +952,652 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C83D72-6F8C-4CDC-87A1-C4798576EE57}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC37F3AB-D39B-4BB4-814F-7D50D735D3A4}">
+  <sheetPr codeName="GerbongSheet"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>CONCATENATE("Preset Trainset Proyek  ", Proyek!B1)</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>CONCATENATE("List Gerbong Proyek  ", [1]Proyek!B1)</f>
+        <v>List Gerbong Proyek  612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF58725-6FDF-4115-AC69-A778CFA3CDE0}">
+  <sheetPr codeName="PresetTrainsetSheet"/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>CONCATENATE("Preset Trainset Proyek  ", [1]Proyek!B1)</f>
         <v>Preset Trainset Proyek  612</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713BF0E-2FF4-40AA-BB0E-1721A8C71424}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F992B986-3B7C-4031-AAF4-6F5FD55D70B9}">
+  <sheetPr codeName="TrainsetSheet"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>CONCATENATE("List Trainset Proyek  ", Proyek!B1)</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>CONCATENATE("List Trainset Proyek  ", [1]Proyek!B1)</f>
         <v>List Trainset Proyek  612</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>8</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>7</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="B14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,21 +1605,216 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D018A3F4-33E3-49A4-B974-30819A4B5402}">
-          <x14:formula1>
-            <xm:f>'Preset Trainset'!$B$4:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5 C4 C8 C9 C6 C7 C10 C11 C12 C13 C14 C15</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E2BE94-ABE4-4EBA-B142-DCA4F406FFAC}">
+  <sheetPr codeName="PanelSheet"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25278103-38BB-487F-9EA8-C2E9A8564F2A}">
+  <sheetPr codeName="KomponenSheet"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>